--- a/TEMP/EMPRESA_027/H I S T O R I A L.xlsx
+++ b/TEMP/EMPRESA_027/H I S T O R I A L.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>O&amp;H CONSTRUCTORA S.A.S.</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">16:49
+      <t xml:space="preserve">15:13
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">20-02-2025
+      <t xml:space="preserve">25-02-2025
 </t>
     </r>
     <r>
@@ -115,24 +115,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PC_SERIE_001001_286</t>
-  </si>
-  <si>
-    <t>miércoles, 19 de febrero de 2025</t>
-  </si>
-  <si>
-    <t>PRISMANET PROFESIONAL S.A</t>
-  </si>
-  <si>
-    <t>PC_SERIE_001001_283</t>
-  </si>
-  <si>
-    <t>martes, 18 de febrero de 2025</t>
-  </si>
-  <si>
-    <t>WALTER VACA</t>
   </si>
 </sst>
 </file>
@@ -590,7 +572,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F3" sqref="F3"/>
@@ -638,7 +620,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">16:49
+            <t xml:space="preserve">15:13
 </t>
           </r>
           <r>
@@ -663,7 +645,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">20-02-2025
+            <t xml:space="preserve">25-02-2025
 </t>
           </r>
           <r>
@@ -718,46 +700,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>1.0</v>
-      </c>
-      <c r="E4">
-        <v>6.59</v>
-      </c>
-      <c r="F4">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>1.0</v>
-      </c>
-      <c r="E5">
-        <v>6.617</v>
-      </c>
-      <c r="F5">
-        <v>6.62</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
